--- a/cc_mech_calcs.xlsx
+++ b/cc_mech_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30200" yWindow="780" windowWidth="33240" windowHeight="18300" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="780" windowWidth="33240" windowHeight="18300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Proof Test Caps" sheetId="5" r:id="rId5"/>
     <sheet name="Butt Weld" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
   <si>
     <t>Component</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>Calculations competed utilizing Roark's Formulas for Stress &amp; Strain, Section 11.2</t>
+  </si>
+  <si>
+    <t>ta = tangential moment at the outer edge</t>
+  </si>
+  <si>
+    <t>rb = radial moment at the inner edge</t>
   </si>
 </sst>
 </file>
@@ -597,11 +603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1404677232"/>
-        <c:axId val="-1402869952"/>
+        <c:axId val="313827488"/>
+        <c:axId val="313830240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1404677232"/>
+        <c:axId val="313827488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,12 +663,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1402869952"/>
+        <c:crossAx val="313830240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1402869952"/>
+        <c:axId val="313830240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +724,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1404677232"/>
+        <c:crossAx val="313827488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1624,7 +1630,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1699,11 +1705,11 @@
       </c>
       <c r="F6">
         <f>'Injector Plate'!H3</f>
-        <v>0.5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G6">
         <f>'Injector Plate'!C16</f>
-        <v>1.7644110275689222</v>
+        <v>1.4997493734335841</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -1722,11 +1728,11 @@
       </c>
       <c r="F7">
         <f>'Aft Closeout'!H3</f>
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="G7">
         <f>'Aft Closeout'!C22</f>
-        <v>2.4318935186544914</v>
+        <v>1.5077739815657847</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -1756,6 +1762,16 @@
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -2148,7 +2164,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2186,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -2288,7 +2304,7 @@
       </c>
       <c r="C15">
         <f>6*C14/H3</f>
-        <v>18703.125</v>
+        <v>22003.676470588234</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -2300,7 +2316,7 @@
       </c>
       <c r="C16" s="2">
         <f>Overview!C21/'Injector Plate'!C15</f>
-        <v>1.7644110275689222</v>
+        <v>1.4997493734335841</v>
       </c>
     </row>
   </sheetData>
@@ -2313,7 +2329,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2351,7 +2367,7 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -2513,7 +2529,7 @@
       </c>
       <c r="C21">
         <f>6*C20/H3</f>
-        <v>13569.673074443699</v>
+        <v>21886.569474909193</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -2525,7 +2541,7 @@
       </c>
       <c r="C22" s="2">
         <f>Overview!C21/'Aft Closeout'!C21</f>
-        <v>2.4318935186544914</v>
+        <v>1.5077739815657847</v>
       </c>
     </row>
   </sheetData>
@@ -2796,7 +2812,7 @@
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2875,7 +2891,7 @@
       <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f>Overview!D21/'Butt Weld'!C10</f>
         <v>1.6592810002229006</v>
       </c>

--- a/cc_mech_calcs.xlsx
+++ b/cc_mech_calcs.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="780" windowWidth="33240" windowHeight="18300" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="780" windowWidth="33240" windowHeight="18300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Flange" sheetId="2" r:id="rId2"/>
-    <sheet name="Injector Plate" sheetId="3" r:id="rId3"/>
-    <sheet name="Aft Closeout" sheetId="4" r:id="rId4"/>
-    <sheet name="Proof Test Caps" sheetId="5" r:id="rId5"/>
-    <sheet name="Butt Weld" sheetId="6" r:id="rId6"/>
+    <sheet name="Shell" sheetId="7" r:id="rId2"/>
+    <sheet name="Flange" sheetId="2" r:id="rId3"/>
+    <sheet name="Injector Plate" sheetId="3" r:id="rId4"/>
+    <sheet name="Aft Closeout" sheetId="4" r:id="rId5"/>
+    <sheet name="Proof Test Caps" sheetId="5" r:id="rId6"/>
+    <sheet name="Butt Weld" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="87">
   <si>
     <t>Component</t>
   </si>
@@ -247,9 +248,6 @@
     <t>tn</t>
   </si>
   <si>
-    <t>A_tensil</t>
-  </si>
-  <si>
     <t>sigma_t</t>
   </si>
   <si>
@@ -278,6 +276,24 @@
   </si>
   <si>
     <t>rb = radial moment at the inner edge</t>
+  </si>
+  <si>
+    <t>A_tensile</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Proof Test</t>
+  </si>
+  <si>
+    <t>Hot Fire</t>
+  </si>
+  <si>
+    <t>r_i</t>
+  </si>
+  <si>
+    <t>t_min</t>
   </si>
 </sst>
 </file>
@@ -603,11 +619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="313827488"/>
-        <c:axId val="313830240"/>
+        <c:axId val="157607728"/>
+        <c:axId val="157610048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="313827488"/>
+        <c:axId val="157607728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,12 +679,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313830240"/>
+        <c:crossAx val="157610048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="313830240"/>
+        <c:axId val="157610048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,7 +740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313827488"/>
+        <c:crossAx val="157607728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1629,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1752,26 +1768,26 @@
       </c>
       <c r="F8">
         <f>'Proof Test Caps'!H3</f>
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G8">
         <f>'Proof Test Caps'!C21</f>
-        <v>1.4743620996457678</v>
+        <v>1.983901641283345</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -1784,7 +1800,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -1811,7 +1827,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <f>9900000</f>
@@ -1823,7 +1839,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24">
         <v>11500</v>
@@ -1836,10 +1852,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>900</v>
+      </c>
+      <c r="D5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7">
+        <f>C5*C6/(18000/1.25)</f>
+        <v>0.125</v>
+      </c>
+      <c r="D7">
+        <f>D5*D6/(18000/1.25)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2159,7 +2233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -2324,7 +2398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -2549,12 +2623,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2592,7 +2666,7 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -2748,7 +2822,7 @@
       </c>
       <c r="C15">
         <f>C14*6/H3^2</f>
-        <v>17195.624999999996</v>
+        <v>12779.150564803804</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -2760,15 +2834,15 @@
       </c>
       <c r="C16" s="2">
         <f>Overview!C21/'Proof Test Caps'!C15</f>
-        <v>1.9190927924980923</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+        <v>2.5823312615854328</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -2780,25 +2854,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>35</v>
       </c>
       <c r="C20">
         <f>C19*6/H3^2</f>
-        <v>22382.561249999999</v>
+        <v>16633.88915725327</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="2">
         <f>Overview!C21/'Proof Test Caps'!C20</f>
-        <v>1.4743620996457678</v>
+        <v>1.983901641283345</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f>600*1.5*2/0.125</f>
+        <v>14400</v>
       </c>
     </row>
   </sheetData>
@@ -2807,12 +2887,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2865,19 +2945,19 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <f>PI()*(C6^2-C7^2)/4</f>
         <v>1.6198837120072371</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <f>C3/C8</f>
@@ -2889,7 +2969,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2">
         <f>Overview!D21/'Butt Weld'!C10</f>
@@ -2898,7 +2978,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <f>Flange!C20</f>

--- a/cc_mech_calcs.xlsx
+++ b/cc_mech_calcs.xlsx
@@ -9,16 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="780" windowWidth="33240" windowHeight="18300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="33240" windowHeight="18300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Shell" sheetId="7" r:id="rId2"/>
-    <sheet name="Flange" sheetId="2" r:id="rId3"/>
-    <sheet name="Injector Plate" sheetId="3" r:id="rId4"/>
-    <sheet name="Aft Closeout" sheetId="4" r:id="rId5"/>
-    <sheet name="Proof Test Caps" sheetId="5" r:id="rId6"/>
-    <sheet name="Butt Weld" sheetId="6" r:id="rId7"/>
+    <sheet name="Flange" sheetId="2" r:id="rId2"/>
+    <sheet name="Injector Plate" sheetId="3" r:id="rId3"/>
+    <sheet name="Aft Closeout" sheetId="4" r:id="rId4"/>
+    <sheet name="Proof Test Caps" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="84">
   <si>
     <t>Component</t>
   </si>
@@ -224,9 +222,6 @@
     <t>Design Pressure (psi)</t>
   </si>
   <si>
-    <t>FS_min</t>
-  </si>
-  <si>
     <t>FS_c</t>
   </si>
   <si>
@@ -236,39 +231,9 @@
     <t>FS_ta</t>
   </si>
   <si>
-    <t>F_tension</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>Di</t>
-  </si>
-  <si>
-    <t>tn</t>
-  </si>
-  <si>
-    <t>sigma_t</t>
-  </si>
-  <si>
-    <t>SF_t</t>
-  </si>
-  <si>
-    <t>4043 Filler</t>
-  </si>
-  <si>
     <t>Et (psi)</t>
   </si>
   <si>
-    <t>M_rb</t>
-  </si>
-  <si>
-    <t>in2</t>
-  </si>
-  <si>
-    <t>Ssu (psi)</t>
-  </si>
-  <si>
     <t>Calculations competed utilizing Roark's Formulas for Stress &amp; Strain, Section 11.2</t>
   </si>
   <si>
@@ -278,22 +243,46 @@
     <t>rb = radial moment at the inner edge</t>
   </si>
   <si>
-    <t>A_tensile</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Proof Test</t>
-  </si>
-  <si>
-    <t>Hot Fire</t>
-  </si>
-  <si>
-    <t>r_i</t>
-  </si>
-  <si>
-    <t>t_min</t>
+    <t>6061, 4043 filler, PWHT &amp; Age</t>
+  </si>
+  <si>
+    <t>Mild Steel, 1/4-20 Bolts</t>
+  </si>
+  <si>
+    <t>Bolted Connection</t>
+  </si>
+  <si>
+    <t>Tensile area (in2)</t>
+  </si>
+  <si>
+    <t>Preload stress (psi)</t>
+  </si>
+  <si>
+    <t>Preload per bolt (lbs)</t>
+  </si>
+  <si>
+    <t>Pressure-induced stress (psi)</t>
+  </si>
+  <si>
+    <t>Pressure area (in2)</t>
+  </si>
+  <si>
+    <t>Pressure-induced force (lbs)</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Sy,allow (psi)</t>
+  </si>
+  <si>
+    <t>N, bolts</t>
+  </si>
+  <si>
+    <t>Total Stress (psi)</t>
+  </si>
+  <si>
+    <t>FS, min</t>
   </si>
 </sst>
 </file>
@@ -415,7 +404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -619,11 +607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157607728"/>
-        <c:axId val="157610048"/>
+        <c:axId val="654638800"/>
+        <c:axId val="688019888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157607728"/>
+        <c:axId val="654638800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,12 +667,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157610048"/>
+        <c:crossAx val="688019888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157610048"/>
+        <c:axId val="688019888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,7 +728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157607728"/>
+        <c:crossAx val="654638800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1643,18 +1631,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G24"/>
+  <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
@@ -1679,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -1702,7 +1695,7 @@
       </c>
       <c r="G5">
         <f>Flange!C22</f>
-        <v>4.0615712683959577</v>
+        <v>4.6400374793493206</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -1725,7 +1718,7 @@
       </c>
       <c r="G6">
         <f>'Injector Plate'!C16</f>
-        <v>1.4997493734335841</v>
+        <v>1.7133500417710945</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -1744,11 +1737,11 @@
       </c>
       <c r="F7">
         <f>'Aft Closeout'!H3</f>
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G7">
         <f>'Aft Closeout'!C22</f>
-        <v>1.5077739815657847</v>
+        <v>1.5558223019949586</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -1772,77 +1765,188 @@
       </c>
       <c r="G8">
         <f>'Proof Test Caps'!C21</f>
-        <v>1.983901641283345</v>
+        <v>2.2664573295873365</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D20">
+        <v>2115</v>
+      </c>
+      <c r="E20">
+        <f>D20/C20</f>
+        <v>68225.806451612909</v>
+      </c>
+      <c r="F20">
+        <v>1200</v>
+      </c>
+      <c r="G20">
+        <f>PI()*4</f>
+        <v>12.566370614359172</v>
+      </c>
+      <c r="H20">
+        <f>G20*F20</f>
+        <v>15079.644737231007</v>
+      </c>
+      <c r="I20">
+        <f>H20/(B20*C20)</f>
+        <v>32429.343520926897</v>
+      </c>
+      <c r="J20">
+        <f>I20+E20</f>
+        <v>100655.1499725398</v>
+      </c>
+      <c r="K20">
+        <f>D27/J20</f>
+        <v>1.2915384859638668</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C21">
+      <c r="C27">
+        <v>37700</v>
+      </c>
+      <c r="D27">
+        <v>130000</v>
+      </c>
+      <c r="E27">
         <v>33000</v>
       </c>
-      <c r="D21">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C22">
+      <c r="C28">
         <v>0.33</v>
       </c>
-      <c r="D22">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23">
+      <c r="D28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29">
         <f>9900000</f>
         <v>9900000</v>
       </c>
-      <c r="D23">
-        <v>10150000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24">
-        <v>11500</v>
+      <c r="D29">
+        <v>29000000</v>
+      </c>
+      <c r="E29">
+        <f>9900000</f>
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1.25</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <f>C27/C30</f>
+        <v>18850</v>
+      </c>
+      <c r="D31">
+        <f>D27/D30</f>
+        <v>104000</v>
+      </c>
+      <c r="E31">
+        <f>E27/E30</f>
+        <v>16500</v>
       </c>
     </row>
   </sheetData>
@@ -1852,68 +1956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5">
-        <v>900</v>
-      </c>
-      <c r="D5">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7">
-        <f>C5*C6/(18000/1.25)</f>
-        <v>0.125</v>
-      </c>
-      <c r="D7">
-        <f>D5*D6/(18000/1.25)</f>
-        <v>0.125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2113,11 +2159,11 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2">
-        <f>Overview!C21/Flange!C21</f>
-        <v>4.0615712683959577</v>
+        <f>Overview!C27/Flange!C21</f>
+        <v>4.6400374793493206</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -2125,7 +2171,7 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <f>Overview!C23*(Flange!H3^3)/(12*(1-Overview!C22^2))</f>
+        <f>Overview!C29*(Flange!H3^3)/(12*(1-Overview!C28^2))</f>
         <v>115727.75221636178</v>
       </c>
     </row>
@@ -2144,7 +2190,7 @@
       </c>
       <c r="C27">
         <f>0.5*(1+Flange!C22+(1-Flange!C22)*Flange!C14^2)</f>
-        <v>1.789989561693853</v>
+        <v>1.9392535272801177</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -2152,7 +2198,7 @@
         <v>42</v>
       </c>
       <c r="C28">
-        <f>C14*((1+Overview!C22)*LN(Flange!C11/Flange!C12)/2+(1-Overview!C22)*(1+Flange!C14^2)/4)</f>
+        <f>C14*((1+Overview!C28)*LN(Flange!C11/Flange!C12)/2+(1-Overview!C28)*(1+Flange!C14^2)/4)</f>
         <v>0.34079356830444907</v>
       </c>
     </row>
@@ -2179,7 +2225,7 @@
         <v>48</v>
       </c>
       <c r="C31">
-        <f>(C13/C11)*((1+Overview!C22)*LN(Flange!C11/Flange!C13)/2+(1-Overview!C22)*(1-(Flange!C13/Flange!C11^2))*4)</f>
+        <f>(C13/C11)*((1+Overview!C28)*LN(Flange!C11/Flange!C13)/2+(1-Overview!C28)*(1-(Flange!C13/Flange!C11^2))*4)</f>
         <v>1.7063962437715872</v>
       </c>
     </row>
@@ -2189,7 +2235,7 @@
       </c>
       <c r="C32">
         <f>C10*(C11^2)*(C26*(C13*C28/C12-C31)/C27-C13*C29/C12+C30)/C25</f>
-        <v>-1.7771505113238013E-2</v>
+        <v>-1.6636367037529708E-2</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
@@ -2200,8 +2246,8 @@
         <v>54</v>
       </c>
       <c r="C33">
-        <f>-1*C32*C25*(1-Overview!C22^2)/Flange!C11</f>
-        <v>637.45616167049388</v>
+        <f>-1*C32*C25*(1-Overview!C28^2)/Flange!C11</f>
+        <v>596.73925243313079</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
@@ -2213,7 +2259,7 @@
       </c>
       <c r="C34">
         <f>C33*6/H3</f>
-        <v>7649.4739400459266</v>
+        <v>7160.8710291975694</v>
       </c>
       <c r="D34" t="s">
         <v>32</v>
@@ -2221,11 +2267,11 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="2">
-        <f>ABS(Overview!C21/Flange!C34)</f>
-        <v>4.3140221482736196</v>
+        <f>ABS(Overview!C27/Flange!C34)</f>
+        <v>5.2647226638048492</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -2365,7 +2411,7 @@
         <v>57</v>
       </c>
       <c r="C14">
-        <f>C7*(C8^3)*(1+Overview!C22)/16</f>
+        <f>C7*(C8^3)*(1+Overview!C28)/16</f>
         <v>1558.59375</v>
       </c>
       <c r="D14" t="s">
@@ -2386,11 +2432,11 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2">
-        <f>Overview!C21/'Injector Plate'!C15</f>
-        <v>1.4997493734335841</v>
+        <f>Overview!C27/'Injector Plate'!C15</f>
+        <v>1.7133500417710945</v>
       </c>
     </row>
   </sheetData>
@@ -2398,7 +2444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -2441,7 +2487,7 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -2554,7 +2600,7 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <f>0.5*((1+Overview!C22)*'Aft Closeout'!C13+(1-Overview!C22)*'Aft Closeout'!C10/'Aft Closeout'!C11)</f>
+        <f>0.5*((1+Overview!C28)*'Aft Closeout'!C13+(1-Overview!C28)*'Aft Closeout'!C10/'Aft Closeout'!C11)</f>
         <v>0.95262258064516125</v>
       </c>
     </row>
@@ -2563,7 +2609,7 @@
         <v>61</v>
       </c>
       <c r="C17">
-        <f>0.5*(1-Overview!C22^2)*('Aft Closeout'!C10/'Aft Closeout'!C11-'Aft Closeout'!C13)</f>
+        <f>0.5*(1-Overview!C28^2)*('Aft Closeout'!C10/'Aft Closeout'!C11-'Aft Closeout'!C13)</f>
         <v>0.4423880322580645</v>
       </c>
     </row>
@@ -2581,7 +2627,7 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <f>(C12/C10)*((1+Overview!C22)*LN('Aft Closeout'!C10/'Aft Closeout'!C12)/2+(1-Overview!C22)*(1-('Aft Closeout'!C12/'Aft Closeout'!C10^2))/4)</f>
+        <f>(C12/C10)*((1+Overview!C28)*LN('Aft Closeout'!C10/'Aft Closeout'!C12)/2+(1-Overview!C28)*(1-('Aft Closeout'!C12/'Aft Closeout'!C10^2))/4)</f>
         <v>0.27518936072879879</v>
       </c>
     </row>
@@ -2603,7 +2649,7 @@
       </c>
       <c r="C21">
         <f>6*C20/H3</f>
-        <v>21886.569474909193</v>
+        <v>24231.559061506603</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -2614,8 +2660,8 @@
         <v>34</v>
       </c>
       <c r="C22" s="2">
-        <f>Overview!C21/'Aft Closeout'!C21</f>
-        <v>1.5077739815657847</v>
+        <f>Overview!C27/'Aft Closeout'!C21</f>
+        <v>1.5558223019949586</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
@@ -2833,8 +2879,8 @@
         <v>34</v>
       </c>
       <c r="C16" s="2">
-        <f>Overview!C21/'Proof Test Caps'!C15</f>
-        <v>2.5823312615854328</v>
+        <f>Overview!C27/'Proof Test Caps'!C15</f>
+        <v>2.9501178352051762</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -2871,8 +2917,8 @@
         <v>36</v>
       </c>
       <c r="C21" s="2">
-        <f>Overview!C21/'Proof Test Caps'!C20</f>
-        <v>1.983901641283345</v>
+        <f>Overview!C27/'Proof Test Caps'!C20</f>
+        <v>2.2664573295873365</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -2885,110 +2931,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3">
-        <f>'Aft Closeout'!C8</f>
-        <v>17572.615375101217</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5">
-        <v>0.125</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6">
-        <f>C7+2*C5</f>
-        <v>4.25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8">
-        <f>PI()*(C6^2-C7^2)/4</f>
-        <v>1.6198837120072371</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10">
-        <f>C3/C8</f>
-        <v>10848.072145454542</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="2">
-        <f>Overview!D21/'Butt Weld'!C10</f>
-        <v>1.6592810002229006</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14">
-        <f>Flange!C20</f>
-        <v>677.07786427346423</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>